--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem4/67/incorrect_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem4/67/incorrect_predictions_67.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,12 +471,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Contact DJI Support if this persists</t>
+          <t>Restart Aircraft</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -487,21 +487,21 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
+          <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Unable to display nearby manned aircraft and anti-collision warnings</t>
+          <t>Unable to hover</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3-11</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -512,21 +512,21 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
+          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Please check the Compass installation and interference</t>
+          <t>Unable to display nearby manned aircraft and anti-collision warnings</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5-11</t>
+          <t>3-11</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -537,51 +537,51 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
+          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Please check the</t>
+          <t>No GPS</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
+          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Compass installation and interference</t>
+          <t>Return to Home failed</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8-11</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
@@ -596,65 +596,15 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>No GPS</t>
+          <t>No GPS Return to Home failed</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>14</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Return to Home failed</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2-5</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>14</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>No GPS Return to Home failed</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0-5</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
         <is>
           <t>False</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem4/67/incorrect_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem4/67/incorrect_predictions_67.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,12 +471,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Restart Aircraft</t>
+          <t>Contact DJI Support if this persists</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -487,21 +487,21 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>No GPS signal Unable to hover Fly with caution .</t>
+          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Unable to hover</t>
+          <t>Unable to display nearby manned aircraft and anti-collision warnings</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>3-11</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -512,21 +512,21 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
+          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Unable to display nearby manned aircraft and anti-collision warnings</t>
+          <t>Please check the Compass installation and interference</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3-11</t>
+          <t>5-11</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -537,51 +537,51 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
+          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No GPS</t>
+          <t>Please check the</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
+          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Return to Home failed</t>
+          <t>Compass installation and interference</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -596,15 +596,65 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>No GPS</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0-1</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>14</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Return to Home failed</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2-5</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>14</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>No GPS Return to Home failed</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>0-5</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>False</t>
         </is>
